--- a/data/trans_bre/P54_A_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>74,68%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>22,17%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 19,51</t>
+          <t>-15,32; 16,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 23,7</t>
+          <t>-7,18; 34,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 31,82</t>
+          <t>-4,56; 34,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 503,89</t>
+          <t>-70,92; 410,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 40,38</t>
+          <t>-9,61; 78,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 56,79</t>
+          <t>-5,75; 65,4</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>-23,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-41,01%</t>
+          <t>-70,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>-1,29%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 7,0</t>
+          <t>-54,08; 2,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 25,29</t>
+          <t>-20,98; 23,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 15,78</t>
+          <t>-19,84; 19,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,5; 61,97</t>
+          <t>-98,1; 55,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 49,28</t>
+          <t>-26,72; 45,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 26,49</t>
+          <t>-24,37; 31,46</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>12,21%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 9,62</t>
+          <t>-13,56; 10,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 8,59</t>
+          <t>-13,22; 15,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 21,89</t>
+          <t>-7,47; 24,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-50,4; 133,88</t>
+          <t>-64,24; 128,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 13,03</t>
+          <t>-16,83; 25,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 38,36</t>
+          <t>-9,66; 44,3</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,3</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>12,4%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 15,25</t>
+          <t>-6,18; 15,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 21,84</t>
+          <t>-0,21; 25,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 20,45</t>
+          <t>-5,62; 21,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 177,08</t>
+          <t>-32,63; 174,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 38,61</t>
+          <t>-0,23; 48,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 32,15</t>
+          <t>-6,56; 34,35</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,39</t>
+          <t>22,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,53</t>
+          <t>20,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>52,68%</t>
+          <t>151,57%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>31,21%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 12,92</t>
+          <t>-2,7; 17,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 34,34</t>
+          <t>8,63; 40,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 30,43</t>
+          <t>4,04; 39,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 268,83</t>
+          <t>-65,5; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,79; 62,8</t>
+          <t>11,89; 80,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 52,75</t>
+          <t>5,61; 76,46</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,08</t>
+          <t>15,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,09</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>168,17%</t>
+          <t>118,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>13,59%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,74; 33,99</t>
+          <t>-1,86; 34,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 8,85</t>
+          <t>-19,21; 16,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 25,75</t>
+          <t>-8,79; 28,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,12; 657,29</t>
+          <t>-18,04; 691,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 11,44</t>
+          <t>-22,44; 24,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 41,95</t>
+          <t>-10,87; 49,16</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 9,08</t>
+          <t>-8,98; 6,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 11,3</t>
+          <t>0,04; 14,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,27; 15,55</t>
+          <t>1,52; 16,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 84,37</t>
+          <t>-41,14; 54,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 16,96</t>
+          <t>0,05; 22,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 23,71</t>
+          <t>2,08; 25,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,86</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,16%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>24,75%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>22,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.321303741278335</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.84181765639087</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>15.52717318255393</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1016186984457663</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2664115182739843</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2309640556430784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,32; 16,05</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 34,71</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 34,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-70,92; 410,89</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-9,61; 78,44</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 65,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.31760268351441</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.064953560708417</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.246850669551798</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.7092367858087352</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.08461721691500969</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.05388188531479862</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.0453867510497</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>38.4466251246274</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>35.61857033698132</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>4.108917633876109</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.844843411077864</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.699417955692868</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-23,46</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-70,26%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,95%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-54,08; 2,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-20,98; 23,64</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,84; 19,06</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-98,1; 55,35</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-26,72; 45,73</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-24,37; 31,46</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-23.46219259509744</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.221670268338922</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.492096723737524</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.7026171277741577</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1473561223025636</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.02056841561123541</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,21</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,5%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,21%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-54.0772674357836</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.35849445885149</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-17.39792338007434</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.9809617012113948</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1754898923027297</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2055763077242302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,56; 10,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,22; 15,96</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,47; 24,65</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-64,24; 128,3</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-16,83; 25,89</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-9,66; 44,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.333919459707352</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>35.83610782482569</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>22.11887011757262</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.5534856345351037</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.8209844276333464</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.3636024869102951</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +775,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,65</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>26,31%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>18,85%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>12,4%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.08280096739008</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.06561130420480454</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.254292764490278</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.07497398807553285</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.0009179925449251751</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1050037322881631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,18; 15,25</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 25,84</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; 21,27</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-32,63; 174,04</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 48,39</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,56; 34,35</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.56325143075684</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.80665267932716</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.226998324817286</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.6424274355755952</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1821287330571784</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1050932830923376</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.08195863829961</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.31630435833217</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>23.38038756470363</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.282978536599295</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2370555074412242</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4033679719714001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,57</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>22,94</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>20,23</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>151,57%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>34,29%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>31,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 17,92</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,63; 40,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 39,17</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-65,5; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>11,89; 80,29</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,61; 76,46</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.781538515028862</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>12.10152692831662</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.5746632431017</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.263109133314977</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1911410423778871</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1374995191687844</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>15,03</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>118,75%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-1,72%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>13,59%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.17693088560238</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.08075563060789485</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.673919593358504</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3263323072410517</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.003414718626477658</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.05496054588490763</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 34,09</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-19,21; 16,67</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 28,42</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-18,04; 691,55</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-22,44; 24,49</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-10,87; 49,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.24888863199983</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>25.53412670879052</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>22.21673392163928</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.740422719159593</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4792588456484092</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3626852538723661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +939,241 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,38</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>10,88%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>6.569880192963915</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>23.42148935191434</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>21.52448308075643</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>1.515669666136166</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.3505789702887754</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.337111721318106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; 6,07</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 14,08</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 16,54</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-41,14; 54,87</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 22,13</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 25,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.700803188942205</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>9.125514509237073</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>5.013938314395153</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.6549765292303433</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.1242582165429472</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.06549338685488895</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>17.92069634295704</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>40.75894130317463</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>40.7694801193441</v>
+      </c>
+      <c r="F18" s="6" t="inlineStr"/>
+      <c r="G18" s="6" t="n">
+        <v>0.7993519342050085</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.8149018401823049</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>15.03349894190744</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-2.215619955744996</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>8.783818762735319</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>1.187469684958988</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.02756318471535515</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.1260125858340564</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-1.862787374293916</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-21.20982996624975</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-10.1725206696603</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.1804119770706764</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.2374762597913069</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.1291124933869114</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>34.08925381721465</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>14.68156328028535</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>27.82137805999517</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>6.915544991937873</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.2122958828556944</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.4829428244681072</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.3475564010983284</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>8.797462996523608</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>10.09433425147975</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.02217490587635043</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1314410578404768</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.1468561549047036</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.976959948979827</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.044580024412771</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2.225651766200365</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.411436535655627</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.01482160442430689</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.03149670994887891</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.074572071168002</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>15.95260717587296</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>17.40652137120692</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.5487168650744418</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.2634826102385706</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.2734262464771218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1161,15 +1182,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
